--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187422.950464927</v>
+        <v>1166616.288808418</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2990033.635411731</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10583094.62700956</v>
+        <v>11423767.42356056</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>175.4681753671757</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>311.547186812278</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.275596830496628</v>
+        <v>196.7218456862864</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>22.9926801761842</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>134.6751203255737</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>327.7946815628228</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>131.1019666843686</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1186,7 +1186,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1195,13 +1195,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>43.31785343913997</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>45.21952718910687</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>22.72490415881828</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1824,16 +1824,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>134.78685608927</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>105.0903281190973</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>108.6200406500436</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185944</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>102.0005969012859</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>17.72817936157405</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>25.58923446922638</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>246.3700647438666</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3198,10 +3198,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
-        <v>58.71291134403118</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>140.5678108961689</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.562624396424693</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>33.92423056204012</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>66.14085215535403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>412.2086804271149</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>412.2086804271149</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2246.245153341813</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>1915.182265998242</v>
+        <v>1952.515689877274</v>
       </c>
       <c r="W2" t="n">
-        <v>1562.413610728128</v>
+        <v>1952.515689877274</v>
       </c>
       <c r="X2" t="n">
-        <v>1188.947852467049</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="Y2" t="n">
-        <v>798.8085204912368</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="3">
@@ -4424,10 +4424,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>99.59950625323012</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V4" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>807.3934508328825</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>396.407546043275</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2673.924161547329</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>2497.746673861499</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4658,31 +4658,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>562.6765899837193</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D7" t="n">
-        <v>562.6765899837193</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E7" t="n">
-        <v>562.6765899837193</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
         <v>99.5995062532301</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>562.6765899837193</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.48357412947</v>
+        <v>764.7444956504012</v>
       </c>
       <c r="C8" t="n">
-        <v>1662.48357412947</v>
+        <v>764.7444956504012</v>
       </c>
       <c r="D8" t="n">
-        <v>1662.48357412947</v>
+        <v>764.7444956504012</v>
       </c>
       <c r="E8" t="n">
-        <v>1276.695321531226</v>
+        <v>764.7444956504012</v>
       </c>
       <c r="F8" t="n">
-        <v>865.7094167416183</v>
+        <v>353.7585908607936</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>339.8351867993845</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834949</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473041</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1528.349585887293</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1154.883827626213</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.48357412947</v>
+        <v>764.7444956504012</v>
       </c>
     </row>
     <row r="9">
@@ -4883,19 +4883,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064344</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="E10" t="n">
-        <v>709.5665374816297</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="F10" t="n">
-        <v>562.6765899837193</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>97.69838933464726</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036446</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>279.346854164887</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641087</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.916270557902</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>392.0201325405894</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>847.3060485260917</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>697.1894091137559</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G16" t="n">
         <v>359.1696912903951</v>
@@ -5433,19 +5433,19 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>1016.242231453999</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>1016.242231453999</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5542,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.2212943649431</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>678.2851114370362</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>528.1684720247005</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>380.2553784423073</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>233.365430944397</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2212943649431</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.2212943649431</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5837,13 +5837,13 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1332.091733170013</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1661.954360834046</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
         <v>2331.418122136705</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>206.9343042381077</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>206.9343042381077</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>206.9343042381077</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>206.9343042381077</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>4036.945405494735</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V22" t="n">
-        <v>3782.260917288848</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W22" t="n">
-        <v>3492.843747251887</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X22" t="n">
-        <v>3459.155393916676</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>388.5827690683474</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5992,22 +5992,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6077,16 +6077,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2227.840212610279</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2432.862693392488</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V25" t="n">
-        <v>1244.231782352015</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W25" t="n">
-        <v>1244.231782352015</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>1244.231782352015</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>1244.231782352015</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,25 +6211,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,7 +6244,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>485.404702608941</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>377.0769431707729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>755.183133481126</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6463,7 +6463,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6542,16 +6542,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
         <v>2051.878056918008</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U31" t="n">
-        <v>1387.841167119728</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="V31" t="n">
-        <v>1387.841167119728</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="W31" t="n">
-        <v>1387.841167119728</v>
+        <v>939.0625057788493</v>
       </c>
       <c r="X31" t="n">
-        <v>1387.841167119728</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y31" t="n">
-        <v>1167.048587976198</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,25 +6685,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,10 +6721,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1150.481660716884</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>861.0644906799231</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>633.0749397819058</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6958,7 +6958,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>880.8106280646857</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4458.413529040523</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>4289.477346112616</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>4139.36070670028</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>3991.447613117887</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>3844.557665619977</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G37" t="n">
-        <v>3676.382343939797</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3525.964335487741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4860.854573014292</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>4860.854573014292</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>4860.854573014292</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>4860.854573014292</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>4860.854573014292</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>4640.061993870762</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7198,10 +7198,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7250,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4184.086356507269</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C40" t="n">
-        <v>4184.086356507269</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D40" t="n">
-        <v>4184.086356507269</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E40" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3889.283315426965</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4549.859459491671</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4184.086356507269</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>4184.086356507269</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>4184.086356507269</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>4184.086356507269</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>4184.086356507269</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.043068977053</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1999.905696641086</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
         <v>2331.418122136705</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>102.8359039819269</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C43" t="n">
-        <v>102.8359039819269</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>620.2426249169049</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W43" t="n">
-        <v>330.8254548799443</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X43" t="n">
-        <v>102.8359039819269</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.8359039819269</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1029.666285013068</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="C46" t="n">
-        <v>860.7301020851612</v>
+        <v>299.6593126980815</v>
       </c>
       <c r="D46" t="n">
-        <v>710.6134626728254</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7836,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X46" t="n">
-        <v>1432.107328986838</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y46" t="n">
-        <v>1211.314749843308</v>
+        <v>468.5954956259884</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305141</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504743</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305277</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.6241510367944</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>73.53204524669994</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10193,16 +10193,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>253.7371603504735</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>85.30006332127834</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,16 +11144,16 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22549,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>75.75599214111358</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0062774114811</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22798,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,19 +22941,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>11.99007165458411</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>85.98948845797219</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23083,13 +23083,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>128.0571403890124</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>173.3651261629879</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>123.7090584877509</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>31.70671237410755</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23955,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>120.6193272699399</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>36.80100737288764</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871777</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>77.83138328065138</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>128.7057832849951</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>154.2427457127109</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>39.86728765471076</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -25086,10 +25086,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
-        <v>193.4247319797968</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>44.27839330891752</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>27.94407814005706</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>145.6695415024085</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>143.0528486217877</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>48.0036839568655</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>114.6912424561722</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26076,22 +26076,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>159.5688032336831</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>738255.8117143274</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738255.8117143274</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114799</v>
       </c>
       <c r="F2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="H2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="I2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="J2" t="n">
+        <v>430131.9657114798</v>
+      </c>
+      <c r="K2" t="n">
         <v>430131.9657114797</v>
       </c>
-      <c r="J2" t="n">
-        <v>430131.9657114796</v>
-      </c>
-      <c r="K2" t="n">
-        <v>430131.9657114796</v>
-      </c>
       <c r="L2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="M2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="O2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="P2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114797</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.6561755686</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773396</v>
@@ -26438,19 +26438,19 @@
         <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,28 +26490,28 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399561.742436189</v>
+        <v>-404602.6707097259</v>
       </c>
       <c r="C6" t="n">
-        <v>190406.1367783555</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="D6" t="n">
-        <v>190406.1367783553</v>
+        <v>185365.2085048184</v>
       </c>
       <c r="E6" t="n">
-        <v>-223447.8802318669</v>
+        <v>-224422.4714915887</v>
       </c>
       <c r="F6" t="n">
-        <v>301712.1562450293</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="G6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853077</v>
       </c>
       <c r="H6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="I6" t="n">
-        <v>301712.1562450291</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="J6" t="n">
-        <v>125288.9370524361</v>
+        <v>124314.3457927146</v>
       </c>
       <c r="K6" t="n">
-        <v>301712.1562450291</v>
+        <v>300737.5649853074</v>
       </c>
       <c r="L6" t="n">
-        <v>301712.1562450291</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="M6" t="n">
-        <v>166911.1410111921</v>
+        <v>165936.5497514704</v>
       </c>
       <c r="N6" t="n">
-        <v>301712.1562450289</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="O6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853074</v>
       </c>
       <c r="P6" t="n">
-        <v>301712.1562450289</v>
+        <v>300737.5649853075</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>16.20507165785693</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>89.5600285556913</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>31.4857223986275</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>192.8208060799886</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1.88210574939702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,13 +35260,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541597</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819989</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>776.1294408004661</v>
@@ -36214,7 +36214,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541609</v>
       </c>
       <c r="P21" t="n">
         <v>207.0934149315246</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>192.6371838218685</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>586.9317337484864</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>334.5577682773026</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,16 +37864,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
         <v>207.0934149315246</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1166616.288808418</v>
+        <v>1183685.161273598</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>2990033.63541173</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11423767.42356056</v>
+        <v>10583094.62700956</v>
       </c>
     </row>
     <row r="11">
@@ -664,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>183.6237899101557</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>311.547186812278</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>196.7218456862864</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>262.98102090663</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>22.9926801761842</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.46389722690856</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>131.1019666843686</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>32.60465838343553</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>43.31785343913997</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>187.466470981599</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>115.5269768002174</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.21952718910687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E16" t="n">
-        <v>22.72490415881828</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1861,10 +1861,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>105.0903281190973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>108.6200406500436</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>33.35146980185879</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>131.6781577333166</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U31" t="n">
-        <v>246.3700647438666</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>245.5591000916435</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>215.6214853475421</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>33.92423056204012</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4194,7 +4194,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1579.049931616194</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="C2" t="n">
-        <v>1210.087414675782</v>
+        <v>1721.656133445788</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.390434839037</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>977.6021822407931</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>566.6162774511856</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>1952.515689877274</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>1952.515689877274</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1579.049931616194</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y2" t="n">
-        <v>1579.049931616194</v>
+        <v>2090.6186503862</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4494,43 +4494,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>529.4200491697815</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V4" t="n">
-        <v>274.7355609638946</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
         <v>53.94298182036445</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2673.924161547329</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2497.746673861499</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2497.746673861499</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>2497.746673861499</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X5" t="n">
-        <v>2497.746673861499</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>764.7444956504012</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C8" t="n">
-        <v>764.7444956504012</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>764.7444956504012</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E8" t="n">
-        <v>764.7444956504012</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>353.7585908607936</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>339.8351867993845</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224076</v>
@@ -4816,40 +4816,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500978</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157407</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887293</v>
+        <v>2390.551736153672</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626213</v>
+        <v>2017.085977892592</v>
       </c>
       <c r="Y8" t="n">
-        <v>764.7444956504012</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>97.69838933464726</v>
+        <v>538.7689125078493</v>
       </c>
       <c r="C10" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>97.69838933464726</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>97.69838933464726</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>97.69838933464726</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.346854164887</v>
+        <v>538.7689125078493</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845924</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977054</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641087</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405894</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655742</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286137</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305963</v>
+        <v>213.9110074201014</v>
       </c>
       <c r="Y13" t="n">
-        <v>392.0201325405894</v>
+        <v>213.9110074201014</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277036</v>
+        <v>485.5200852635876</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775513</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.242231453999</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>847.3060485260917</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>697.1894091137559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.231782352016</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.242231453999</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.242231453999</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822463</v>
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,19 +5752,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>206.9343042381077</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>206.9343042381077</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>206.9343042381077</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>206.9343042381077</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1187.92115703528</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U22" t="n">
-        <v>898.7925182488382</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V22" t="n">
-        <v>898.7925182488382</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W22" t="n">
-        <v>609.3753482118775</v>
+        <v>130.9054447954967</v>
       </c>
       <c r="X22" t="n">
-        <v>609.3753482118775</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>388.5827690683474</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>399.161514522856</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>230.2253315949491</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>230.2253315949491</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>230.2253315949491</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1151.239967633105</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U25" t="n">
-        <v>862.1113288466635</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V25" t="n">
-        <v>607.4268406407766</v>
+        <v>909.3712637033467</v>
       </c>
       <c r="W25" t="n">
-        <v>318.0096706038159</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>619.9540936663861</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>399.161514522856</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.404702608941</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>732.169830515405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6411,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,16 +6457,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6484,10 +6484,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>939.0625057788493</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>939.0625057788493</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>939.0625057788493</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,46 +6679,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6727,22 +6727,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6885,10 +6885,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,34 +6955,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>731.3177283550796</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>441.900558318119</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655738</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286132</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X40" t="n">
-        <v>437.6964226305959</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y40" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,19 +7423,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655738</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286132</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305959</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870658</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>299.6593126980815</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8774,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305141</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>199.7396287231155</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978135</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305277</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524669994</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>253.7371603504735</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711655</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229581</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>230.1603801106393</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>264.1714611465364</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,10 +22786,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102.2918708643776</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,19 +22986,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>218.6195091248538</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23178,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,13 +23196,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>31.11818237049579</v>
       </c>
     </row>
     <row r="11">
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429841045</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.3651261629879</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E16" t="n">
-        <v>123.7090584877509</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>120.6193272699399</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>36.80100737288764</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24180,22 +24180,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>13.74289028961462</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U31" t="n">
-        <v>39.86728765471076</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>27.94407814005706</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>40.67825230693387</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>48.0036839568655</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>36.51615797628591</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>114.6912424561722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1029539.671513649</v>
+        <v>738255.8117143273</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976597</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173335</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="E2" t="n">
-        <v>430131.9657114799</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="F2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="G2" t="n">
         <v>430131.9657114798</v>
       </c>
-      <c r="G2" t="n">
-        <v>430131.9657114795</v>
-      </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114796</v>
       </c>
       <c r="I2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
         <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114797</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.6561755686</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>44802.65617556861</v>
       </c>
       <c r="E4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="F4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="G4" t="n">
         <v>36432.48351773394</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36432.48351773394</v>
-      </c>
-      <c r="G4" t="n">
-        <v>36432.48351773396</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773394</v>
@@ -26447,19 +26447,19 @@
         <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773394</v>
       </c>
     </row>
     <row r="5">
@@ -26475,19 +26475,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-404602.6707097259</v>
+        <v>-400168.583810771</v>
       </c>
       <c r="C6" t="n">
-        <v>185365.2085048185</v>
+        <v>189799.2954037735</v>
       </c>
       <c r="D6" t="n">
-        <v>185365.2085048184</v>
+        <v>189799.2954037733</v>
       </c>
       <c r="E6" t="n">
-        <v>-224422.4714915887</v>
+        <v>-223545.3393578391</v>
       </c>
       <c r="F6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190568</v>
       </c>
       <c r="G6" t="n">
-        <v>300737.5649853077</v>
+        <v>301614.697119057</v>
       </c>
       <c r="H6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="I6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.697119057</v>
       </c>
       <c r="J6" t="n">
-        <v>124314.3457927146</v>
+        <v>125191.4779264641</v>
       </c>
       <c r="K6" t="n">
-        <v>300737.5649853074</v>
+        <v>301614.697119057</v>
       </c>
       <c r="L6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.697119057</v>
       </c>
       <c r="M6" t="n">
-        <v>165936.5497514704</v>
+        <v>166813.6818852198</v>
       </c>
       <c r="N6" t="n">
-        <v>300737.5649853076</v>
+        <v>301614.697119057</v>
       </c>
       <c r="O6" t="n">
-        <v>300737.5649853074</v>
+        <v>301614.6971190569</v>
       </c>
       <c r="P6" t="n">
-        <v>300737.5649853075</v>
+        <v>301614.697119057</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26767,19 +26767,19 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26795,13 +26795,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>16.20507165785693</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,28 +27581,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>89.5600285556913</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>31.4857223986275</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7829238717193</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>192.8208060799886</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28013,28 +28013,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.88210574939702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -32001,37 +32001,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,31 +32074,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839187</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541597</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879393</v>
+        <v>350.3150673110547</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958058</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507419</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541609</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>586.9317337484864</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
